--- a/biology/Zoologie/Ctenotus_colletti/Ctenotus_colletti.xlsx
+++ b/biology/Zoologie/Ctenotus_colletti/Ctenotus_colletti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ctenotus colletti est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ctenotus colletti est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre en Australie-Occidentale et dans le Territoire du Nord[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre en Australie-Occidentale et dans le Territoire du Nord.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sous-espèces Ctenotus colletti nasutus et Ctenotus colletti rufescens ont été élevées au rang d'espèces par Storr en 1990[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sous-espèces Ctenotus colletti nasutus et Ctenotus colletti rufescens ont été élevées au rang d'espèces par Storr en 1990.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Robert Collett[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Robert Collett.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1896 : Descriptions of four new lizards from Roebuck Bay, N. W. Australia obtained by Dr. Dahl for the Christiania Museum. Annals and magazine of natural history, sér. 6, vol. 18, p. 232-235 (texte intégral).</t>
         </is>
